--- a/data/trans_camb/P73-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P73-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 1,84</t>
+          <t>-23,85; 1,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 9,72</t>
+          <t>-17,02; 9,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-77,19; -59,24</t>
+          <t>-77,1; -59,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 12,03</t>
+          <t>-13,45; 11,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 6,59</t>
+          <t>-16,15; 8,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-77,57; -61,58</t>
+          <t>-77,8; -61,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 2,68</t>
+          <t>-15,28; 3,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 5,6</t>
+          <t>-13,54; 4,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-74,69; -62,82</t>
+          <t>-75,09; -62,58</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,77; 2,33</t>
+          <t>-32,47; 2,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 15,78</t>
+          <t>-23,22; 15,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 19,38</t>
+          <t>-18,24; 17,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 10,82</t>
+          <t>-21,38; 12,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 4,06</t>
+          <t>-20,58; 5,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 8,78</t>
+          <t>-18,1; 6,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 7,33</t>
+          <t>-3,55; 7,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 4,29</t>
+          <t>-8,03; 3,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-69,18; -61,28</t>
+          <t>-69,11; -61,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 10,01</t>
+          <t>-2,32; 9,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 6,37</t>
+          <t>-6,03; 5,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,44; -58,51</t>
+          <t>-67,0; -59,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 6,69</t>
+          <t>-1,11; 6,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 3,23</t>
+          <t>-4,6; 3,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-66,88; -61,28</t>
+          <t>-66,95; -61,4</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 11,71</t>
+          <t>-5,25; 12,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 6,87</t>
+          <t>-11,72; 5,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 16,82</t>
+          <t>-3,52; 15,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 10,67</t>
+          <t>-9,1; 8,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 10,6</t>
+          <t>-1,66; 11,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 5,23</t>
+          <t>-6,84; 5,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 3,41</t>
+          <t>-5,11; 3,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 1,17</t>
+          <t>-7,64; 0,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-69,57; -63,1</t>
+          <t>-69,51; -63,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 4,37</t>
+          <t>-3,89; 4,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 4,38</t>
+          <t>-4,07; 4,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-69,49; -63,29</t>
+          <t>-69,59; -63,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 3,05</t>
+          <t>-3,26; 2,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,26</t>
+          <t>-5,04; 1,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-68,37; -63,8</t>
+          <t>-68,35; -64,19</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 5,33</t>
+          <t>-7,37; 5,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 1,84</t>
+          <t>-11,11; 1,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 6,87</t>
+          <t>-5,72; 7,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 6,84</t>
+          <t>-6,0; 6,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 4,67</t>
+          <t>-4,79; 4,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 1,93</t>
+          <t>-7,41; 1,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 1,23</t>
+          <t>-8,27; 2,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,87; -0,74</t>
+          <t>-10,61; -0,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-73,05; -66,05</t>
+          <t>-73,0; -66,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 7,35</t>
+          <t>-3,49; 6,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 1,12</t>
+          <t>-8,48; 0,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-67,84; -60,61</t>
+          <t>-67,68; -60,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 2,91</t>
+          <t>-4,49; 3,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,55; -1,13</t>
+          <t>-8,15; -0,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-69,49; -64,45</t>
+          <t>-69,49; -64,56</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 1,76</t>
+          <t>-11,49; 3,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,05; -1,07</t>
+          <t>-14,7; -0,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 12,08</t>
+          <t>-5,18; 10,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 1,8</t>
+          <t>-12,81; 1,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,5</t>
+          <t>-6,54; 4,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,42; -1,67</t>
+          <t>-11,92; -1,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 5,91</t>
+          <t>-2,88; 5,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 7,43</t>
+          <t>-1,74; 6,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-64,1; -57,71</t>
+          <t>-64,2; -58,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 8,3</t>
+          <t>-0,33; 7,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 0,06</t>
+          <t>-8,98; -0,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-59,9; -53,85</t>
+          <t>-60,02; -53,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,97</t>
+          <t>-0,51; 5,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 2,14</t>
+          <t>-4,18; 1,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-61,12; -56,95</t>
+          <t>-60,99; -56,63</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 9,92</t>
+          <t>-4,59; 10,04</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 12,37</t>
+          <t>-2,77; 11,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 15,34</t>
+          <t>-0,66; 14,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 0,15</t>
+          <t>-15,22; -0,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 10,41</t>
+          <t>-0,84; 9,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 3,74</t>
+          <t>-7,06; 3,31</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,8</t>
+          <t>-2,69; 2,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,58</t>
+          <t>-4,11; 0,59</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-67,07; -63,67</t>
+          <t>-67,06; -63,62</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,63</t>
+          <t>-0,03; 4,65</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,08</t>
+          <t>-4,52; 0,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-64,13; -60,75</t>
+          <t>-64,14; -60,81</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,63</t>
+          <t>-0,72; 2,65</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -0,49</t>
+          <t>-3,77; -0,4</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-65,09; -62,75</t>
+          <t>-65,12; -62,87</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,77</t>
+          <t>-4,05; 3,55</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 0,91</t>
+          <t>-6,18; 0,92</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,52</t>
+          <t>-0,05; 7,59</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 0,13</t>
+          <t>-7,12; 0,32</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,15</t>
+          <t>-1,12; 4,2</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-5,77; -0,77</t>
+          <t>-5,83; -0,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_camb/P73-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P73-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,85; 1,46</t>
+          <t>-24,9; 1,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 9,33</t>
+          <t>-15,71; 9,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-77,1; -59,02</t>
+          <t>-76,47; -57,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 11,04</t>
+          <t>-12,86; 10,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 8,23</t>
+          <t>-15,33; 7,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-77,8; -61,91</t>
+          <t>-77,93; -60,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 3,34</t>
+          <t>-15,19; 2,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 4,34</t>
+          <t>-12,98; 4,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-75,09; -62,58</t>
+          <t>-74,68; -63,29</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 2,69</t>
+          <t>-34,21; 1,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 15,7</t>
+          <t>-20,62; 16,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 17,09</t>
+          <t>-17,42; 16,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 12,92</t>
+          <t>-21,08; 11,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 5,55</t>
+          <t>-21,03; 3,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 6,78</t>
+          <t>-18,06; 7,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 7,78</t>
+          <t>-4,02; 7,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 3,37</t>
+          <t>-7,46; 3,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-69,11; -61,26</t>
+          <t>-69,07; -61,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 9,35</t>
+          <t>-2,0; 9,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 5,34</t>
+          <t>-4,93; 6,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-67,0; -59,23</t>
+          <t>-66,64; -58,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 6,85</t>
+          <t>-1,08; 7,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 3,33</t>
+          <t>-4,69; 3,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-66,95; -61,4</t>
+          <t>-66,82; -61,21</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 12,58</t>
+          <t>-6,09; 12,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 5,37</t>
+          <t>-10,98; 6,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 15,31</t>
+          <t>-3,04; 15,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 8,81</t>
+          <t>-7,64; 10,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 11,02</t>
+          <t>-1,69; 11,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 5,31</t>
+          <t>-7,13; 5,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 3,41</t>
+          <t>-5,31; 3,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 0,73</t>
+          <t>-8,16; 1,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-69,51; -63,35</t>
+          <t>-69,3; -63,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 4,89</t>
+          <t>-4,06; 4,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 4,4</t>
+          <t>-4,07; 4,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-69,59; -63,42</t>
+          <t>-69,54; -63,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 2,92</t>
+          <t>-3,33; 3,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 1,12</t>
+          <t>-4,75; 1,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-68,35; -64,19</t>
+          <t>-68,44; -64,16</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 5,31</t>
+          <t>-7,67; 6,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 1,14</t>
+          <t>-12,01; 1,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 7,58</t>
+          <t>-5,92; 7,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 6,85</t>
+          <t>-6,05; 6,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 4,54</t>
+          <t>-4,86; 4,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 1,74</t>
+          <t>-7,04; 2,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 2,42</t>
+          <t>-8,64; 1,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -0,6</t>
+          <t>-10,66; -0,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-73,0; -66,18</t>
+          <t>-73,26; -66,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 6,66</t>
+          <t>-2,92; 6,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 0,94</t>
+          <t>-8,47; 0,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-67,68; -60,69</t>
+          <t>-67,52; -60,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 3,12</t>
+          <t>-4,32; 2,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,15; -0,97</t>
+          <t>-8,35; -0,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-69,49; -64,56</t>
+          <t>-69,55; -64,32</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 3,72</t>
+          <t>-12,14; 2,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,7; -0,94</t>
+          <t>-14,9; -1,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 10,76</t>
+          <t>-4,25; 11,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 1,4</t>
+          <t>-12,75; 1,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 4,84</t>
+          <t>-6,22; 4,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,92; -1,48</t>
+          <t>-12,19; -1,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 5,88</t>
+          <t>-2,89; 6,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 6,95</t>
+          <t>-2,08; 6,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-64,2; -58,16</t>
+          <t>-64,26; -58,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 7,93</t>
+          <t>-0,49; 8,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,98; -0,27</t>
+          <t>-8,89; 0,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-60,02; -53,95</t>
+          <t>-60,1; -54,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,71</t>
+          <t>-0,46; 5,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,91</t>
+          <t>-4,49; 1,54</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-60,99; -56,63</t>
+          <t>-61,14; -56,73</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 10,04</t>
+          <t>-4,62; 10,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 11,83</t>
+          <t>-3,2; 11,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 14,37</t>
+          <t>-0,86; 15,38</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,22; -0,5</t>
+          <t>-15,12; 0,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 9,82</t>
+          <t>-0,86; 10,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 3,31</t>
+          <t>-7,41; 2,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 2,28</t>
+          <t>-2,82; 1,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,59</t>
+          <t>-4,21; 0,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-67,06; -63,62</t>
+          <t>-66,98; -63,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,65</t>
+          <t>-0,12; 4,46</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,22</t>
+          <t>-4,45; 0,18</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-64,14; -60,81</t>
+          <t>-64,33; -60,78</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,65</t>
+          <t>-0,63; 2,69</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,77; -0,4</t>
+          <t>-3,62; -0,43</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-65,12; -62,87</t>
+          <t>-65,08; -62,75</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 3,55</t>
+          <t>-4,2; 2,85</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 0,92</t>
+          <t>-6,34; 0,58</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 7,59</t>
+          <t>-0,19; 7,23</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 0,32</t>
+          <t>-7,01; 0,28</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,2</t>
+          <t>-0,96; 4,27</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -0,65</t>
+          <t>-5,62; -0,68</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_camb/P73-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P73-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,21 +531,18 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +559,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -642,37 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-68,02</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-69,81</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-6,1</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
           <t>-3,96</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-68,91</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 1,13</t>
+          <t>-24,02; 1,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 9,64</t>
+          <t>-15,36; 9,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-76,47; -57,93</t>
+          <t>-13,48; 12,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 10,89</t>
+          <t>-17,28; 6,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 7,61</t>
+          <t>-15,31; 2,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-77,93; -60,94</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-15,19; 2,04</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-12,98; 4,6</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-74,68; -63,29</t>
+          <t>-11,97; 5,6</t>
         </is>
       </c>
     </row>
@@ -748,37 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-1,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,37%</t>
+          <t>-5,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,86%</t>
+          <t>-8,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-8,85%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
           <t>-5,74%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 1,94</t>
+          <t>-32,77; 2,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 16,15</t>
+          <t>-21,37; 15,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,26; 19,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 16,97</t>
+          <t>-22,59; 10,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 11,84</t>
+          <t>-21,1; 4,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-21,03; 3,43</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-18,06; 7,12</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-16,58; 8,78</t>
         </is>
       </c>
     </row>
@@ -858,37 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-65,24</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-62,88</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
           <t>-0,64</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-64,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 7,57</t>
+          <t>-3,35; 7,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 3,85</t>
+          <t>-7,17; 4,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-69,07; -61,61</t>
+          <t>-1,82; 10,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 9,35</t>
+          <t>-5,33; 6,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 6,37</t>
+          <t>-1,22; 6,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,64; -58,56</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 7,02</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 3,22</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-66,82; -61,21</t>
+          <t>-4,66; 3,23</t>
         </is>
       </c>
     </row>
@@ -964,37 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>4,49%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
           <t>-1,0%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 12,04</t>
+          <t>-4,91; 11,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 6,2</t>
+          <t>-10,72; 6,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 16,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 15,64</t>
+          <t>-8,33; 10,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 10,45</t>
+          <t>-1,9; 10,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 11,27</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-7,13; 5,16</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-7,05; 5,23</t>
         </is>
       </c>
     </row>
@@ -1074,37 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-66,35</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-66,35</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
           <t>-1,74</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-66,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 3,94</t>
+          <t>-5,14; 3,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 1,06</t>
+          <t>-7,68; 1,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-69,3; -63,1</t>
+          <t>-4,21; 4,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 4,91</t>
+          <t>-4,2; 4,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 4,27</t>
+          <t>-3,23; 3,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-69,54; -63,24</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-3,33; 3,0</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 1,4</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-68,44; -64,16</t>
+          <t>-4,81; 1,26</t>
         </is>
       </c>
     </row>
@@ -1180,37 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>-0,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-0,23%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
           <t>-2,62%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 6,16</t>
+          <t>-7,65; 5,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 1,61</t>
+          <t>-11,08; 1,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,04; 6,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 7,6</t>
+          <t>-6,19; 6,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 6,8</t>
+          <t>-4,72; 4,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-4,86; 4,63</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-7,04; 2,1</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-7,09; 1,93</t>
         </is>
       </c>
     </row>
@@ -1290,37 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-69,7</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-64,12</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
           <t>-4,77</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-66,9</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 1,7</t>
+          <t>-8,38; 1,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,66; -0,68</t>
+          <t>-10,87; -0,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-73,26; -66,07</t>
+          <t>-2,74; 7,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 6,83</t>
+          <t>-8,81; 1,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 0,77</t>
+          <t>-4,49; 2,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-67,52; -60,13</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 2,74</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-8,35; -0,71</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>-69,55; -64,32</t>
+          <t>-8,55; -1,13</t>
         </is>
       </c>
     </row>
@@ -1396,37 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>-5,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,9%</t>
+          <t>-1,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>-1,16%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
           <t>-7,13%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 2,41</t>
+          <t>-11,63; 1,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,9; -1,02</t>
+          <t>-15,05; -1,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 12,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 11,36</t>
+          <t>-13,33; 1,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 1,21</t>
+          <t>-6,5; 4,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>-6,22; 4,17</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>-12,19; -1,15</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-12,42; -1,67</t>
         </is>
       </c>
     </row>
@@ -1506,37 +1235,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-61,13</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-57,05</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
           <t>-1,22</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-58,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 6,11</t>
+          <t>-3,07; 5,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 6,99</t>
+          <t>-1,92; 7,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-64,26; -58,13</t>
+          <t>-0,45; 8,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 8,42</t>
+          <t>-9,08; 0,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 0,24</t>
+          <t>-0,28; 5,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-60,1; -54,08</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 5,92</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-4,49; 1,54</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-61,14; -56,73</t>
+          <t>-4,43; 2,14</t>
         </is>
       </c>
     </row>
@@ -1612,37 +1311,22 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>-8,11%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-8,11%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>4,78%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
           <t>-2,07%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 10,26</t>
+          <t>-4,79; 9,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 11,95</t>
+          <t>-3,06; 12,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 15,34</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 15,38</t>
+          <t>-15,37; 0,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 0,45</t>
+          <t>-0,47; 10,41</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 10,23</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-7,41; 2,62</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-7,4; 3,74</t>
         </is>
       </c>
     </row>
@@ -1722,37 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-65,41</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-62,57</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
           <t>-2,04</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-63,96</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,84</t>
+          <t>-2,81; 1,8</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 0,38</t>
+          <t>-4,13; 0,58</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-66,98; -63,7</t>
+          <t>-0,32; 4,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,46</t>
+          <t>-4,56; 0,08</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 0,18</t>
+          <t>-0,93; 2,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-64,33; -60,78</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 2,69</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; -0,43</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-65,08; -62,75</t>
+          <t>-3,73; -0,49</t>
         </is>
       </c>
     </row>
@@ -1828,37 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>-3,48%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-3,48%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>1,53%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
           <t>-3,19%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 2,85</t>
+          <t>-4,19; 2,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 0,58</t>
+          <t>-6,24; 0,91</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 7,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 7,23</t>
+          <t>-7,13; 0,13</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 0,28</t>
+          <t>-1,43; 4,15</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 4,27</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-5,62; -0,68</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-5,77; -0,77</t>
         </is>
       </c>
     </row>
@@ -1925,11 +1534,11 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>

--- a/data/trans_camb/P73-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P73-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,12</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-1,18</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 1,84</t>
+          <t>-5,05; 5,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 9,72</t>
+          <t>-6,95; 3,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 12,03</t>
+          <t>-2,62; 7,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 6,59</t>
+          <t>-5,3; 4,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 2,68</t>
+          <t>-2,3; 4,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 5,6</t>
+          <t>-4,85; 2,62</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,34%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>-3,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,37%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,86%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,85%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,74%</t>
+          <t>-1,82%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,77; 2,33</t>
+          <t>-7,4; 8,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 15,78</t>
+          <t>-10,16; 5,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 19,38</t>
+          <t>-3,97; 12,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 10,82</t>
+          <t>-8,01; 8,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 4,06</t>
+          <t>-3,45; 7,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 8,78</t>
+          <t>-7,3; 4,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-1,74</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 7,33</t>
+          <t>-5,14; 3,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 4,29</t>
+          <t>-7,68; 1,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 10,01</t>
+          <t>-4,21; 4,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 6,37</t>
+          <t>-4,2; 4,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 6,69</t>
+          <t>-3,23; 3,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 3,23</t>
+          <t>-4,81; 1,26</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>-0,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,52%</t>
+          <t>-5,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>-0,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>-2,62%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 11,71</t>
+          <t>-7,65; 5,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 6,87</t>
+          <t>-11,08; 1,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 16,82</t>
+          <t>-6,04; 6,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 10,67</t>
+          <t>-6,19; 6,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 10,6</t>
+          <t>-4,72; 4,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 5,23</t>
+          <t>-7,09; 1,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-4,77</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 3,41</t>
+          <t>-8,38; 1,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 1,17</t>
+          <t>-10,87; -0,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 4,37</t>
+          <t>-2,74; 7,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 4,38</t>
+          <t>-8,81; 1,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 3,05</t>
+          <t>-4,49; 2,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,26</t>
+          <t>-8,55; -1,13</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,85%</t>
+          <t>-5,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,18%</t>
+          <t>-8,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>-5,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>-1,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,62%</t>
+          <t>-7,13%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 5,33</t>
+          <t>-11,63; 1,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 1,84</t>
+          <t>-15,05; -1,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 6,87</t>
+          <t>-4,07; 12,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 6,84</t>
+          <t>-13,33; 1,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 4,67</t>
+          <t>-6,5; 4,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 1,93</t>
+          <t>-12,42; -1,67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-1,22</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 1,23</t>
+          <t>-3,07; 5,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,87; -0,74</t>
+          <t>-1,92; 7,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 7,35</t>
+          <t>-0,45; 8,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 1,12</t>
+          <t>-9,08; 0,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 2,91</t>
+          <t>-0,28; 5,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,55; -1,13</t>
+          <t>-4,43; 2,14</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,04%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,22%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-5,9%</t>
+          <t>-8,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,16%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>-2,07%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 1,76</t>
+          <t>-4,79; 9,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,05; -1,07</t>
+          <t>-3,06; 12,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 12,08</t>
+          <t>-0,73; 15,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 1,8</t>
+          <t>-15,37; 0,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,5</t>
+          <t>-0,47; 10,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,42; -1,67</t>
+          <t>-7,4; 3,74</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-2,04</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 5,91</t>
+          <t>-2,81; 1,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 7,43</t>
+          <t>-4,13; 0,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 8,3</t>
+          <t>-0,32; 4,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 0,06</t>
+          <t>-4,56; 0,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,97</t>
+          <t>-0,93; 2,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 2,14</t>
+          <t>-3,73; -0,49</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>-0,62%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-8,11%</t>
+          <t>-3,48%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>-3,19%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 9,92</t>
+          <t>-4,19; 2,77</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 12,37</t>
+          <t>-6,24; 0,91</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 15,34</t>
+          <t>-0,5; 7,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 0,15</t>
+          <t>-7,13; 0,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 10,41</t>
+          <t>-1,43; 4,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 3,74</t>
+          <t>-5,77; -0,77</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,88</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-2,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,81; 1,8</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; 0,58</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 4,63</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-4,56; 0,08</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,93; 2,63</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; -0,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-0,62%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-2,87%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>3,71%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-3,48%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>1,53%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-3,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-4,19; 2,77</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-6,24; 0,91</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 7,52</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-7,13; 0,13</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 4,15</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; -0,77</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P73-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P73-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 5,34</t>
+          <t>-4,79; 5,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 3,61</t>
+          <t>-7,02; 3,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 7,55</t>
+          <t>-2,98; 7,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 4,99</t>
+          <t>-5,24; 4,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 4,71</t>
+          <t>-2,13; 4,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 2,62</t>
+          <t>-5,07; 2,2</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 8,45</t>
+          <t>-7,09; 8,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 5,74</t>
+          <t>-10,3; 4,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 12,55</t>
+          <t>-4,5; 12,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 8,1</t>
+          <t>-7,89; 7,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 7,43</t>
+          <t>-3,18; 7,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 4,18</t>
+          <t>-7,53; 3,46</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 3,41</t>
+          <t>-4,65; 4,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 1,17</t>
+          <t>-7,94; 0,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 4,37</t>
+          <t>-4,11; 4,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 4,38</t>
+          <t>-4,72; 3,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 3,05</t>
+          <t>-2,97; 2,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,26</t>
+          <t>-4,9; 1,42</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 5,33</t>
+          <t>-6,79; 6,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 1,84</t>
+          <t>-11,51; 1,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 6,87</t>
+          <t>-6,0; 6,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 6,84</t>
+          <t>-6,84; 6,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 4,67</t>
+          <t>-4,4; 4,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 1,93</t>
+          <t>-7,23; 2,19</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 1,23</t>
+          <t>-8,04; 2,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,87; -0,74</t>
+          <t>-11,39; -0,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 7,35</t>
+          <t>-3,13; 7,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 1,12</t>
+          <t>-8,95; 0,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 2,91</t>
+          <t>-4,28; 2,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; -1,13</t>
+          <t>-8,29; -1,48</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 1,76</t>
+          <t>-11,15; 4,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,05; -1,07</t>
+          <t>-15,67; -1,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 12,08</t>
+          <t>-4,69; 11,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 1,8</t>
+          <t>-13,46; 1,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,5</t>
+          <t>-6,27; 4,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,42; -1,67</t>
+          <t>-12,19; -2,31</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 5,91</t>
+          <t>-2,84; 5,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 7,43</t>
+          <t>-1,56; 7,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 8,3</t>
+          <t>-0,26; 7,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 0,06</t>
+          <t>-8,76; 0,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,97</t>
+          <t>-0,63; 5,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 2,14</t>
+          <t>-4,6; 1,91</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 9,92</t>
+          <t>-4,47; 9,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 12,37</t>
+          <t>-2,44; 12,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 15,34</t>
+          <t>-0,45; 14,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 0,15</t>
+          <t>-14,88; 0,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 10,41</t>
+          <t>-1,01; 9,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 3,74</t>
+          <t>-7,51; 3,36</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,8</t>
+          <t>-2,73; 2,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,58</t>
+          <t>-4,31; 0,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,63</t>
+          <t>-0,09; 4,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,08</t>
+          <t>-4,46; 0,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,63</t>
+          <t>-0,59; 2,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -0,49</t>
+          <t>-3,61; -0,46</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,77</t>
+          <t>-4,09; 3,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 0,91</t>
+          <t>-6,49; 0,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,52</t>
+          <t>-0,09; 7,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 0,13</t>
+          <t>-7,01; 0,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,15</t>
+          <t>-0,92; 4,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,77; -0,77</t>
+          <t>-5,57; -0,71</t>
         </is>
       </c>
     </row>
